--- a/biology/Histoire de la zoologie et de la botanique/Marie-Laure_Tardieu-Blot/Marie-Laure_Tardieu-Blot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marie-Laure_Tardieu-Blot/Marie-Laure_Tardieu-Blot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Laure Tardieu-Blot est une botaniste française née le 17 novembre 1902 à Mourmelon-le-Grand et morte le 23 mars 1998 à Paris 16e[1], épouse de Jean Tardieu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Laure Tardieu-Blot est une botaniste française née le 17 novembre 1902 à Mourmelon-le-Grand et morte le 23 mars 1998 à Paris 16e, épouse de Jean Tardieu.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études de pharmacie, diplômée de la faculté de Paris en 1926. Elle  devient docteur es sciences en 1933 et docteur en médecine en 1935.
-Elle est nommée directrice du laboratoire d'analyse médicale de l'hôpital d'Hanoi en 1928. Elle entre au laboratoire de phanérogamie du Muséum national d'histoire naturelle en 1932, la même année qu'elle devient membre de la Société botanique de France. Elle est nommée sous-directrice du Muséum national d'histoire naturelle en 1964. Elle devient directrice du laboratoire de botanique phanérogamique tropicale en 1967. Elle est enfin nommée directrice honoraire en 1971[2].
+Elle est nommée directrice du laboratoire d'analyse médicale de l'hôpital d'Hanoi en 1928. Elle entre au laboratoire de phanérogamie du Muséum national d'histoire naturelle en 1932, la même année qu'elle devient membre de la Société botanique de France. Elle est nommée sous-directrice du Muséum national d'histoire naturelle en 1964. Elle devient directrice du laboratoire de botanique phanérogamique tropicale en 1967. Elle est enfin nommée directrice honoraire en 1971.
 Elle s'est spécialisée dans l'étude des flores équatoriales et tropicales d'Afrique, de Madagascar et d'Indochine. Elle s'est particulièrement intéressée aux ptéridophytes de ces régions.
 </t>
         </is>
@@ -544,11 +558,48 @@
           <t>Publications et contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ses contributions et publications sont particulièrement nombreuses.
-Principaux articles
-Elle a publié un grand nombre d'articles, principalement dans le bulletin de la Société botanique de France, dont[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses contributions et publications sont particulièrement nombreuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Laure_Tardieu-Blot</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Laure_Tardieu-Blot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications et contributions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principaux articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle a publié un grand nombre d'articles, principalement dans le bulletin de la Société botanique de France, dont :
 1936 - Caractères morphologiques du x Polystichum uliginosum. - Bulletin de la Société Botanique de France, Tome 83 - Fascicule 2 - p. 243-250
 1936 - Etude anatomique du x Polystichum uliginosum. - Avec J. Chartier - Bulletin de la Société Botanique de France, Tome 83 - Fascicule 2 - p. 250-257
 1937 - Sur un Hymenophyllum nouveau de Madagascar. - Bulletin de la Société Botanique de France, Tome 84 - Fascicule 4 - p. 538-540
@@ -563,9 +614,43 @@
 1948 - Hippocrateaceae informations botaniques - Annonces ou litigieuses d'Indochine. - Bulletin de la Société Botanique de France, Tome 95 - Fascicule 7-9 - p. 261-265
 1948 - Un genre nouveau de Sterculiaceae d'Indochine : Trichostephania. - Bulletin de la Société Botanique de France, Tome 95 - Fascicule 7-9 - p. 307-309
 1956 - Sur quelques espèces de Fougères africano-malgaches à aire disjointe. - Bulletin de la Société Botanique de France, Tome 103 - Fascicule 7-8 - p. 470-471
-1959 - Revue de flore exotique. Progrès récents des recherches botaniques à Madagascar (1952-1958). - Avec Henry Des Abbayes, Gilbert Bouriquet, Pierre Bourrelly, Suzanne Jovet-Ast, Jacques Leandri - Bulletin de la Société Botanique de France, Tome 106 - Fascicule 1-2 - p. 35-97
-Principales publications
-Elle est aussi l'auteur ou coauteur des publications suivantes : 
+1959 - Revue de flore exotique. Progrès récents des recherches botaniques à Madagascar (1952-1958). - Avec Henry Des Abbayes, Gilbert Bouriquet, Pierre Bourrelly, Suzanne Jovet-Ast, Jacques Leandri - Bulletin de la Société Botanique de France, Tome 106 - Fascicule 1-2 - p. 35-97</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-Laure_Tardieu-Blot</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Laure_Tardieu-Blot</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications et contributions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principales publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elle est aussi l'auteur ou coauteur des publications suivantes : 
 1932 - Les Aspléniées du Tonkin - Thèses présentées à la Faculté des sciences de Paris pour obtenir le grade de docteur ès sciences naturelles - Paris : Impr. de H. Basuyau
 1938 - Supplément à la Flore générale de l'Indo-Chine publiée sous la direction de H. Humbert - avec André Guillaumin, Jean Arènes, François Pellegrin, Henri Humbert, François Gagnepain, Suzanne Jovet-Ast - Paris : éditions du Muséum national d'histoire naturelle
 1939 - Cryptogames vasculaires - Flore générale de l'Indo-Chine - Tome 7. 2e partie. - Avec Carl Frederik Albert Christensen - Paris : éditions du Muséum national d'histoire naturelle
@@ -581,31 +666,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Marie-Laure_Tardieu-Blot</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Marie-Laure_Tardieu-Blot</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les espèces suivantes lui ont été dédiées :
 Casearia tardieuae Lescot &amp; Sleumer (1970) Flacourtiacée de Vietnam
